--- a/Maschinelles_Lernen/PythonClassifierApplication_Motor/Ergebnisse_SVM_Motor.xlsx
+++ b/Maschinelles_Lernen/PythonClassifierApplication_Motor/Ergebnisse_SVM_Motor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_repositories\datascience_sensor_data\Maschinelles_Lernen\PythonClassifierApplication_Motor\PythonClassifierApplication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_repositories\datascience_sensor_data\Maschinelles_Lernen\PythonClassifierApplication_Motor\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>lineare SVM</t>
   </si>
@@ -51,6 +51,21 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>rbf SVM</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>std</t>
   </si>
 </sst>
 </file>
@@ -112,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -130,6 +145,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -446,114 +469,326 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499BCC99-EC25-41F5-B124-71E260E06872}">
-  <dimension ref="A3:J6"/>
+  <dimension ref="A3:N51"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="13.28515625" style="3" customWidth="1"/>
-    <col min="7" max="10" width="13.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
+    <col min="8" max="11" width="13.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="3">
+      <c r="F4" s="1"/>
+      <c r="G4" s="3">
         <v>100000</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>0.53652690000000003</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>0.75453139999999996</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>0.67832409999999999</v>
       </c>
-      <c r="J4" s="2">
-        <v>0.46347319999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <f>C5+D5</f>
+      <c r="K4" s="2">
+        <f>1-H4</f>
+        <v>0.46347309999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>D5+E5</f>
         <v>420813</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>210406</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>210407</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>0.53690700000000002</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>0.75206879999999998</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>0.6740524</v>
       </c>
-      <c r="J5" s="6">
+      <c r="K5" s="6">
+        <f t="shared" ref="K5:K6" si="0">1-H5</f>
         <v>0.46309299999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F6" s="3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>0.53070479999999998</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>0.65746780000000005</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>0.59533849999999999</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
+        <f t="shared" si="0"/>
         <v>0.46929520000000002</v>
       </c>
     </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
+        <f>1-H9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <f>1-H10</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G11" s="10">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" ref="K11:K13" si="1">1-H11</f>
+        <v>1</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G12" s="10">
+        <v>4</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="10">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13" s="9" t="e">
+        <f>AVERAGE(H12:H16)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" t="e">
+        <f>_xlfn.STDEV.P(H12:H16)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="10"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51" s="10"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M11:N11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Maschinelles_Lernen/PythonClassifierApplication_Motor/Ergebnisse_SVM_Motor.xlsx
+++ b/Maschinelles_Lernen/PythonClassifierApplication_Motor/Ergebnisse_SVM_Motor.xlsx
@@ -23,8 +23,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Martin Trat</author>
+  </authors>
+  <commentList>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{12295AF8-E9C2-4777-83D8-0929F3B33085}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin Trat
+wenige Werte werden evtl. wegen falscher Formatierung in Datenbank herausgefiltert</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{1BDB7744-7FF4-400E-9D8F-CDEB18246B09}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Martin Trat
+wenige Werte werden evtl. wegen falscher Formatierung in Datenbank herausgefiltert</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>lineare SVM</t>
   </si>
@@ -66,6 +106,12 @@
   </si>
   <si>
     <t>std</t>
+  </si>
+  <si>
+    <t>nicht normalisiert</t>
+  </si>
+  <si>
+    <t>(C=1)</t>
   </si>
 </sst>
 </file>
@@ -75,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +136,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -127,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -141,19 +194,29 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,11 +531,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499BCC99-EC25-41F5-B124-71E260E06872}">
-  <dimension ref="A3:N51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499BCC99-EC25-41F5-B124-71E260E06872}">
+  <dimension ref="A3:N56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +545,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -512,284 +575,533 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="3">
-        <v>100000</v>
+        <v>10000000</v>
       </c>
       <c r="H4" s="2">
-        <v>0.53652690000000003</v>
+        <v>0.5383329</v>
       </c>
       <c r="I4" s="2">
-        <v>0.75453139999999996</v>
+        <v>0.75114289999999995</v>
       </c>
       <c r="J4" s="2">
-        <v>0.67832409999999999</v>
+        <v>0.67276670000000005</v>
       </c>
       <c r="K4" s="2">
         <f>1-H4</f>
-        <v>0.46347309999999997</v>
+        <v>0.4616671</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5">
-        <f>D5+E5</f>
-        <v>420813</v>
+        <f>522805+529235</f>
+        <v>1052040</v>
       </c>
       <c r="D5">
-        <v>210406</v>
+        <f>D6*$C$5</f>
+        <v>105204</v>
       </c>
       <c r="E5">
-        <v>210407</v>
-      </c>
-      <c r="G5" s="5">
+        <f>E6*$C$5</f>
+        <v>210408</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.53816180000000002</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.75090800000000002</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.67334850000000002</v>
+      </c>
+      <c r="K5" s="2">
+        <f>1-H5</f>
+        <v>0.46183819999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="H5" s="6">
-        <v>0.53690700000000002</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.75206879999999998</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.6740524</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" ref="K5:K6" si="0">1-H5</f>
-        <v>0.46309299999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G6" s="3">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.53070479999999998</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.65746780000000005</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.59533849999999999</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="D6" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.53694030000000004</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.75128649999999997</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.67553759999999996</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" ref="K6:K8" si="0">1-H6</f>
+        <v>0.46305969999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G7" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.53721600000000003</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.74706629999999996</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.67075779999999996</v>
+      </c>
+      <c r="K7" s="10">
         <f t="shared" si="0"/>
-        <v>0.46929520000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="G8" s="4" t="s">
+        <v>0.46278399999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G8" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.52755370000000001</v>
+      </c>
+      <c r="I8" s="10">
+        <v>0.63316410000000001</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.57682999999999995</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.47244629999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G9" s="10">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F11" s="14"/>
+      <c r="G11" s="8">
         <v>1</v>
       </c>
-      <c r="K9" s="2">
-        <f>1-H9</f>
+      <c r="H11" s="10">
+        <v>0.53694030000000004</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.75128649999999997</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.67553759999999996</v>
+      </c>
+      <c r="K11" s="10">
+        <f>1-H11</f>
+        <v>0.46305969999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F12" s="14"/>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.5374584</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.74940569999999995</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.67264159999999995</v>
+      </c>
+      <c r="K12" s="2">
+        <f>1-H12</f>
+        <v>0.4625416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F13" s="14"/>
+      <c r="G13" s="8">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.53842789999999996</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.75630390000000003</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.67801350000000005</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" ref="K13:K15" si="1">1-H13</f>
+        <v>0.46157210000000004</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14" s="14"/>
+      <c r="G14" s="8">
+        <v>4</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.53769599999999995</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.75595440000000003</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.67664570000000002</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46230400000000005</v>
+      </c>
+      <c r="M14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F15" s="14"/>
+      <c r="G15" s="8">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.53844689999999995</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.74967019999999995</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.67037469999999999</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46155310000000005</v>
+      </c>
+      <c r="M15" s="7">
+        <f>AVERAGE(H11:H15)</f>
+        <v>0.53779389999999994</v>
+      </c>
+      <c r="N15">
+        <f>_xlfn.STDEV.P(H11:H15)</f>
+        <v>5.795071388688544E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G10" s="10">
+      <c r="H20" s="2">
+        <v>0.59602580000000005</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.63216640000000002</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.43979970000000002</v>
+      </c>
+      <c r="K20" s="2">
+        <f>1-H20</f>
+        <v>0.40397419999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f>D22*$C$5</f>
+        <v>105204</v>
+      </c>
+      <c r="E21">
+        <f>E22*$C$5</f>
+        <v>210408</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="8">
         <v>2</v>
       </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <f>1-H10</f>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2">
+        <f>1-H21</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G11" s="10">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="8">
         <v>3</v>
       </c>
-      <c r="K11" s="2">
-        <f t="shared" ref="K11:K13" si="1">1-H11</f>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" ref="K22:K24" si="2">1-H22</f>
         <v>1</v>
       </c>
-      <c r="M11" s="8" t="s">
+      <c r="M22" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G12" s="10">
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F23" s="14"/>
+      <c r="G23" s="8">
         <v>4</v>
       </c>
-      <c r="K12" s="2">
-        <f t="shared" si="1"/>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M23" t="s">
         <v>11</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="10">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F24" s="14"/>
+      <c r="G24" s="8">
         <v>5</v>
       </c>
-      <c r="K13" s="2">
-        <f t="shared" si="1"/>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M13" s="9" t="e">
-        <f>AVERAGE(H12:H16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" t="e">
-        <f>_xlfn.STDEV.P(H12:H16)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G22" s="10"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="10"/>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G26" s="10"/>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G32" s="10"/>
+      <c r="M24" s="7">
+        <f>AVERAGE(H20:H24)</f>
+        <v>0.11920516</v>
+      </c>
+      <c r="N24">
+        <f>_xlfn.STDEV.P(H20:H24)</f>
+        <v>0.23841032000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G32" s="8"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="10"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="10"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="10"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G36" s="10"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G37" s="10"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G38" s="10"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G39" s="10"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G40" s="10"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G41" s="10"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G42" s="10"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G43" s="10"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G44" s="10"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G45" s="10"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G46" s="10"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G47" s="10"/>
+      <c r="G47" s="8"/>
     </row>
     <row r="48" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G48" s="10"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G49" s="10"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G50" s="10"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G51" s="10"/>
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="8"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G56" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="M11:N11"/>
+  <mergeCells count="4">
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="F10:F15"/>
+    <mergeCell ref="F19:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Maschinelles_Lernen/PythonClassifierApplication_Motor/Ergebnisse_SVM_Motor.xlsx
+++ b/Maschinelles_Lernen/PythonClassifierApplication_Motor/Ergebnisse_SVM_Motor.xlsx
@@ -44,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{1BDB7744-7FF4-400E-9D8F-CDEB18246B09}">
+    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{1BDB7744-7FF4-400E-9D8F-CDEB18246B09}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>lineare SVM</t>
   </si>
@@ -180,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -213,11 +213,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -532,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499BCC99-EC25-41F5-B124-71E260E06872}">
-  <dimension ref="A3:N56"/>
+  <dimension ref="A3:P61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,7 +555,7 @@
     <col min="8" max="11" width="13.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -574,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -599,7 +610,7 @@
         <v>0.4616671</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C5">
         <f>522805+529235</f>
         <v>1052040</v>
@@ -629,7 +640,7 @@
         <v>0.46183819999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C6" s="9">
         <v>1</v>
       </c>
@@ -656,7 +667,7 @@
         <v>0.46305969999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G7" s="12">
         <v>0.3</v>
       </c>
@@ -674,7 +685,7 @@
         <v>0.46278399999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G8" s="3">
         <v>9.9999999999999995E-8</v>
       </c>
@@ -692,8 +703,8 @@
         <v>0.47244629999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="F10" s="14" t="s">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F10" s="15" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -712,8 +723,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F11" s="14"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="15"/>
       <c r="G11" s="8">
         <v>1</v>
       </c>
@@ -731,8 +742,8 @@
         <v>0.46305969999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F12" s="14"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="15"/>
       <c r="G12" s="8">
         <v>2</v>
       </c>
@@ -750,8 +761,8 @@
         <v>0.4625416</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F13" s="14"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="15"/>
       <c r="G13" s="8">
         <v>3</v>
       </c>
@@ -765,16 +776,12 @@
         <v>0.67801350000000005</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" ref="K13:K15" si="1">1-H13</f>
+        <f t="shared" ref="K13:K20" si="1">1-H13</f>
         <v>0.46157210000000004</v>
       </c>
-      <c r="M13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F14" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="15"/>
       <c r="G14" s="8">
         <v>4</v>
       </c>
@@ -791,15 +798,9 @@
         <f t="shared" si="1"/>
         <v>0.46230400000000005</v>
       </c>
-      <c r="M14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F15" s="14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F15" s="15"/>
       <c r="G15" s="8">
         <v>5</v>
       </c>
@@ -816,209 +817,361 @@
         <f t="shared" si="1"/>
         <v>0.46155310000000005</v>
       </c>
-      <c r="M15" s="7">
-        <f>AVERAGE(H11:H15)</f>
-        <v>0.53779389999999994</v>
-      </c>
-      <c r="N15">
-        <f>_xlfn.STDEV.P(H11:H15)</f>
-        <v>5.795071388688544E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="13"/>
+      <c r="G16" s="8">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.53723969999999999</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.75581379999999998</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.67786959999999996</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46276030000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F17" s="13"/>
+      <c r="G17" s="8">
+        <v>7</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.5374061</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.75929990000000003</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.68318599999999996</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.4625939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F18" s="13"/>
+      <c r="G18" s="8">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.53694980000000003</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.75823839999999998</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.68194750000000004</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46305019999999997</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F19" s="13"/>
+      <c r="G19" s="8">
         <v>9</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="H19" s="2">
+        <v>0.53698310000000005</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.74382029999999999</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.66645929999999998</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46301689999999995</v>
+      </c>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" t="s">
+        <v>13</v>
+      </c>
+      <c r="O19" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F20" s="13"/>
+      <c r="G20" s="8">
+        <v>10</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.53684529999999997</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.75316839999999996</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.67647420000000003</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46315470000000003</v>
+      </c>
+      <c r="M20" s="7">
+        <f>AVERAGE(H11:H20)</f>
+        <v>0.53743934999999998</v>
+      </c>
+      <c r="N20">
+        <f>_xlfn.STDEV.P(H11:H20)</f>
+        <v>5.6119118711894659E-4</v>
+      </c>
+      <c r="O20" s="7">
+        <f>AVERAGE(J11:J20)</f>
+        <v>0.67591497</v>
+      </c>
+      <c r="P20">
+        <f>_xlfn.STDEV.P(J11:J20)</f>
+        <v>4.7884449739033323E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G21" s="8"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="17"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="O22" s="19"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G23" s="8"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F24" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="8">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="8">
         <v>1</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H25" s="2">
         <v>0.59602580000000005</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I25" s="2">
         <v>0.63216640000000002</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J25" s="2">
         <v>0.43979970000000002</v>
       </c>
-      <c r="K20" s="2">
-        <f>1-H20</f>
+      <c r="K25" s="2">
+        <f>1-H25</f>
         <v>0.40397419999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D21">
-        <f>D22*$C$5</f>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>D27*$C$5</f>
         <v>105204</v>
       </c>
-      <c r="E21">
-        <f>E22*$C$5</f>
+      <c r="E26">
+        <f>E27*$C$5</f>
         <v>210408</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="8">
+      <c r="F26" s="15"/>
+      <c r="G26" s="8">
         <v>2</v>
       </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0</v>
-      </c>
-      <c r="K21" s="2">
-        <f>1-H21</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="D22" s="9">
+      <c r="H26" s="2">
+        <v>0.59533670000000005</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.64642639999999996</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.45494319999999999</v>
+      </c>
+      <c r="K26" s="2">
+        <f>1-H26</f>
+        <v>0.40466329999999995</v>
+      </c>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D27" s="9">
         <v>0.1</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E27" s="9">
         <v>0.2</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="8">
+      <c r="F27" s="15"/>
+      <c r="G27" s="8">
         <v>3</v>
       </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>0</v>
-      </c>
-      <c r="J22" s="2">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" ref="K22:K24" si="2">1-H22</f>
-        <v>1</v>
-      </c>
-      <c r="M22" s="13" t="s">
+      <c r="H27" s="2">
+        <v>0.59373019999999999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.6351078</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.44740459999999999</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" ref="K27:K30" si="2">1-H27</f>
+        <v>0.40626980000000001</v>
+      </c>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F28" s="15"/>
+      <c r="G28" s="8">
+        <v>4</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.59357819999999994</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0.63184300000000004</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.44427319999999998</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40642180000000006</v>
+      </c>
+      <c r="M28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="13"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F23" s="14"/>
-      <c r="G23" s="8">
-        <v>4</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>0</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2">
+      <c r="N28" s="14"/>
+      <c r="O28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F29" s="15"/>
+      <c r="G29" s="8">
+        <v>5</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.59387760000000001</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.62498900000000002</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.457708</v>
+      </c>
+      <c r="K29" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
+        <v>0.40612239999999999</v>
+      </c>
+      <c r="M29" t="s">
         <v>11</v>
       </c>
-      <c r="N23" t="s">
+      <c r="N29" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F24" s="14"/>
-      <c r="G24" s="8">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0</v>
-      </c>
-      <c r="K24" s="2">
+      <c r="O29" t="s">
+        <v>11</v>
+      </c>
+      <c r="P29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G30" s="8">
+        <v>6</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.59346880000000002</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.63834630000000003</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.45175739999999998</v>
+      </c>
+      <c r="K30" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="M24" s="7">
-        <f>AVERAGE(H20:H24)</f>
-        <v>0.11920516</v>
-      </c>
-      <c r="N24">
-        <f>_xlfn.STDEV.P(H20:H24)</f>
-        <v>0.23841032000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="8"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G28" s="8"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.40653119999999998</v>
+      </c>
+      <c r="M30" s="7">
+        <f>AVERAGE(H25:H30)</f>
+        <v>0.59433621666666669</v>
+      </c>
+      <c r="N30">
+        <f>_xlfn.STDEV.P(H25:H30)</f>
+        <v>9.7981674547962193E-4</v>
+      </c>
+      <c r="O30" s="7">
+        <f>AVERAGE(J25:J30)</f>
+        <v>0.44931435000000003</v>
+      </c>
+      <c r="P30">
+        <f>_xlfn.STDEV.P(J25:J30)</f>
+        <v>6.1602855582486302E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G32" s="8"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
@@ -1093,12 +1246,29 @@
     <row r="56" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G56" s="8"/>
     </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G57" s="8"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G59" s="8"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G61" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M22:N22"/>
+  <mergeCells count="6">
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M28:N28"/>
     <mergeCell ref="F10:F15"/>
-    <mergeCell ref="F19:F24"/>
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O28:P28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Maschinelles_Lernen/PythonClassifierApplication_Motor/Ergebnisse_SVM_Motor.xlsx
+++ b/Maschinelles_Lernen/PythonClassifierApplication_Motor/Ergebnisse_SVM_Motor.xlsx
@@ -40,11 +40,11 @@
             <charset val="1"/>
           </rPr>
           <t>Martin Trat
-wenige Werte werden evtl. wegen falscher Formatierung in Datenbank herausgefiltert</t>
+wenige Werte werden evtl. wegen falscher Formatierung in Datenbank von Programm herausgefiltert</t>
         </r>
       </text>
     </comment>
-    <comment ref="D24" authorId="0" shapeId="0" xr:uid="{1BDB7744-7FF4-400E-9D8F-CDEB18246B09}">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{82051463-FF0E-492E-915C-35FC274E9742}">
       <text>
         <r>
           <rPr>
@@ -52,10 +52,30 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin Trat:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
           </rPr>
           <t>Martin Trat
-wenige Werte werden evtl. wegen falscher Formatierung in Datenbank herausgefiltert</t>
+wenige Werte werden evtl. wegen falscher Formatierung in Datenbank von Programm herausgefiltert</t>
         </r>
       </text>
     </comment>
@@ -64,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="19">
   <si>
     <t>lineare SVM</t>
   </si>
@@ -96,9 +116,6 @@
     <t>rbf SVM</t>
   </si>
   <si>
-    <t>accuracy</t>
-  </si>
-  <si>
     <t>mean</t>
   </si>
   <si>
@@ -113,6 +130,18 @@
   <si>
     <t>(C=1)</t>
   </si>
+  <si>
+    <t>Train_Test_Split</t>
+  </si>
+  <si>
+    <t>rel. Delta zu mean 10%/20%</t>
+  </si>
+  <si>
+    <t>normalisiert</t>
+  </si>
+  <si>
+    <t>rel. Delta zu mean 10%/20% (nicht normalisiert)</t>
+  </si>
 </sst>
 </file>
 
@@ -121,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +173,36 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -159,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -176,11 +235,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -215,20 +312,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -543,11 +688,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499BCC99-EC25-41F5-B124-71E260E06872}">
-  <dimension ref="A3:P61"/>
+  <dimension ref="A2:T74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -555,6 +698,13 @@
     <col min="8" max="11" width="13.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+    </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
@@ -587,7 +737,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -704,11 +854,9 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="F10" s="15" t="s">
-        <v>15</v>
-      </c>
+      <c r="F10" s="24"/>
       <c r="G10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>8</v>
@@ -724,7 +872,9 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="15"/>
+      <c r="F11" s="34" t="s">
+        <v>14</v>
+      </c>
       <c r="G11" s="8">
         <v>1</v>
       </c>
@@ -743,7 +893,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="15"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="8">
         <v>2</v>
       </c>
@@ -762,7 +912,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="15"/>
+      <c r="C13" s="22"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="8">
         <v>3</v>
       </c>
@@ -776,12 +927,12 @@
         <v>0.67801350000000005</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" ref="K13:K20" si="1">1-H13</f>
+        <f t="shared" ref="K13:K23" si="1">1-H13</f>
         <v>0.46157210000000004</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="15"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="8">
         <v>4</v>
       </c>
@@ -800,7 +951,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F15" s="15"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="8">
         <v>5</v>
       </c>
@@ -819,7 +970,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F16" s="13"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="8">
         <v>6</v>
       </c>
@@ -837,8 +988,8 @@
         <v>0.46276030000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F17" s="13"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F17" s="34"/>
       <c r="G17" s="8">
         <v>7</v>
       </c>
@@ -856,8 +1007,8 @@
         <v>0.4625939</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F18" s="13"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F18" s="34"/>
       <c r="G18" s="8">
         <v>8</v>
       </c>
@@ -874,17 +1025,25 @@
         <f t="shared" si="1"/>
         <v>0.46305019999999997</v>
       </c>
-      <c r="M18" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14" t="s">
+      <c r="M18" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="P18" s="14"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F19" s="13"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="T18" s="33"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F19" s="34"/>
       <c r="G19" s="8">
         <v>9</v>
       </c>
@@ -901,21 +1060,33 @@
         <f t="shared" si="1"/>
         <v>0.46301689999999995</v>
       </c>
-      <c r="M19" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" t="s">
-        <v>13</v>
-      </c>
-      <c r="O19" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F20" s="13"/>
+      <c r="M19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="T19" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F20" s="34"/>
       <c r="G20" s="8">
         <v>10</v>
       </c>
@@ -932,343 +1103,789 @@
         <f t="shared" si="1"/>
         <v>0.46315470000000003</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="29">
         <f>AVERAGE(H11:H20)</f>
         <v>0.53743934999999998</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="27">
         <f>_xlfn.STDEV.P(H11:H20)</f>
         <v>5.6119118711894659E-4</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="30">
+        <f>AVERAGE(I11:I20)</f>
+        <v>0.75329615000000005</v>
+      </c>
+      <c r="P20" s="27">
+        <f>_xlfn.STDEV.P(I11:I20)</f>
+        <v>4.5282681544383096E-3</v>
+      </c>
+      <c r="Q20" s="30">
         <f>AVERAGE(J11:J20)</f>
         <v>0.67591497</v>
       </c>
-      <c r="P20">
+      <c r="R20" s="27">
         <f>_xlfn.STDEV.P(J11:J20)</f>
         <v>4.7884449739033323E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="S20" s="30">
+        <f>AVERAGE(K11:K20)</f>
+        <v>0.46256065000000002</v>
+      </c>
+      <c r="T20" s="28">
+        <f>_xlfn.STDEV.P(K11:K20)</f>
+        <v>5.6119118711894659E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F21" s="13"/>
       <c r="G21" s="8"/>
+      <c r="M21" s="7"/>
       <c r="O21" s="7"/>
     </row>
-    <row r="22" spans="1:16" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="O22" s="19"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F22" s="13"/>
+      <c r="G22" s="8"/>
+      <c r="M22" s="7"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>$C$5*D24</f>
+        <v>52602</v>
+      </c>
+      <c r="E23">
+        <f>$C$5*E24</f>
+        <v>210408</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="G23" s="8"/>
+      <c r="H23" s="2">
+        <v>0.53669319999999998</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.75398489999999996</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.67702399999999996</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="1"/>
+        <v>0.46330680000000002</v>
+      </c>
+      <c r="M23" s="7"/>
       <c r="O23" s="7"/>
     </row>
-    <row r="24" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="D24" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="17">
+        <f>(H23-$M$20)/$M$20</f>
+        <v>-1.3883427032278172E-3</v>
+      </c>
+      <c r="I24" s="17">
+        <f>(I23-$O$20)/$O$20</f>
+        <v>9.1431504063827309E-4</v>
+      </c>
+      <c r="J24" s="17">
+        <f>(J23-$Q$20)/$Q$20</f>
+        <v>1.6407833074032305E-3</v>
+      </c>
+      <c r="K24" s="17">
+        <f>(K23-$S$20)/$S$20</f>
+        <v>1.6130857650775113E-3</v>
+      </c>
+      <c r="M24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="M25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f>$C$5*D27</f>
+        <v>157806</v>
+      </c>
+      <c r="E26">
+        <f>$C$5*E27</f>
+        <v>210408</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="8"/>
+      <c r="H26" s="2">
+        <v>0.53709240000000003</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0.75629349999999995</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.67941050000000003</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" ref="K26" si="2">1-H26</f>
+        <v>0.46290759999999997</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="D27" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="E27" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="17">
+        <f>(H26-$M$20)/$M$20</f>
+        <v>-6.45561215418925E-4</v>
+      </c>
+      <c r="I27" s="17">
+        <f>(I26-$O$20)/$O$20</f>
+        <v>3.9789795819345402E-3</v>
+      </c>
+      <c r="J27" s="17">
+        <f>(J26-$Q$20)/$Q$20</f>
+        <v>5.1715528655919907E-3</v>
+      </c>
+      <c r="K27" s="17">
+        <f>(K26-$S$20)/$S$20</f>
+        <v>7.5006380244397577E-4</v>
+      </c>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <f>D33*$C$5</f>
+        <v>105204</v>
+      </c>
+      <c r="E32">
+        <f>E33*$C$5</f>
+        <v>210408</v>
+      </c>
+      <c r="G32" s="23"/>
+      <c r="H32" s="36">
+        <v>0.52775340000000004</v>
+      </c>
+      <c r="I32" s="36">
+        <v>0.65062750000000003</v>
+      </c>
+      <c r="J32" s="36">
+        <v>0.59395489999999995</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" ref="K32" si="3">1-H32</f>
+        <v>0.47224659999999996</v>
+      </c>
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="1:20" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="D33" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="17">
+        <f>(H32-$M$20)/$M$20</f>
+        <v>-1.8022405690986235E-2</v>
+      </c>
+      <c r="I33" s="17">
+        <f>(I32-$O$20)/$O$20</f>
+        <v>-0.13629254576702671</v>
+      </c>
+      <c r="J33" s="17">
+        <f>(J32-$Q$20)/$Q$20</f>
+        <v>-0.12125795941462882</v>
+      </c>
+      <c r="K33" s="17">
+        <f>(K32-$S$20)/$S$20</f>
+        <v>2.0939848644712739E-2</v>
+      </c>
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="1:20" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="15"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G35" s="8"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="F36" s="24"/>
+      <c r="G36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.59602580000000005</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.63216640000000002</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.43979970000000002</v>
+      </c>
+      <c r="K37" s="2">
+        <f>1-H37</f>
+        <v>0.40397419999999995</v>
+      </c>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f>D39*$C$5</f>
+        <v>105204</v>
+      </c>
+      <c r="E38">
+        <f>E39*$C$5</f>
+        <v>210408</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="8">
+        <v>2</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.59533670000000005</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.64642639999999996</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.45494319999999999</v>
+      </c>
+      <c r="K38" s="2">
+        <f>1-H38</f>
+        <v>0.40466329999999995</v>
+      </c>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D39" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E39" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="8">
+        <v>3</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.59373019999999999</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.6351078</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.44740459999999999</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" ref="K39:K45" si="4">1-H39</f>
+        <v>0.40626980000000001</v>
+      </c>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F40" s="34"/>
+      <c r="G40" s="8">
+        <v>4</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.59357819999999994</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.63184300000000004</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.44427319999999998</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="4"/>
+        <v>0.40642180000000006</v>
+      </c>
+      <c r="M40" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="P40" s="32"/>
+      <c r="Q40" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="T40" s="33"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F41" s="34"/>
+      <c r="G41" s="8">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.59387760000000001</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.62498900000000002</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.457708</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="4"/>
+        <v>0.40612239999999999</v>
+      </c>
+      <c r="M41" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O24" s="7"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="O41" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q41" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="R41" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="S41" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="T41" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="F42" s="34"/>
+      <c r="G42" s="8">
+        <v>6</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.59346880000000002</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.63834630000000003</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.45175739999999998</v>
+      </c>
+      <c r="K42" s="2">
+        <f t="shared" si="4"/>
+        <v>0.40653119999999998</v>
+      </c>
+      <c r="M42" s="29">
+        <f>AVERAGE(H37:H42)</f>
+        <v>0.59433621666666669</v>
+      </c>
+      <c r="N42" s="27">
+        <f>_xlfn.STDEV.P(H37:H42)</f>
+        <v>9.7981674547962193E-4</v>
+      </c>
+      <c r="O42" s="30">
+        <f>AVERAGE(I37:I42)</f>
+        <v>0.63481314999999994</v>
+      </c>
+      <c r="P42" s="27">
+        <f>_xlfn.STDEV.P(I37:I42)</f>
+        <v>6.5800018099668048E-3</v>
+      </c>
+      <c r="Q42" s="30">
+        <f>AVERAGE(J37:J42)</f>
+        <v>0.44931435000000003</v>
+      </c>
+      <c r="R42" s="27">
+        <f>_xlfn.STDEV.P(J37:J42)</f>
+        <v>6.1602855582486302E-3</v>
+      </c>
+      <c r="S42" s="30">
+        <f>AVERAGE(K37:K42)</f>
+        <v>0.40566378333333336</v>
+      </c>
+      <c r="T42" s="28">
+        <f>_xlfn.STDEV.P(K37:K42)</f>
+        <v>9.7981674547962193E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f>$C$5*D46</f>
+        <v>52602</v>
+      </c>
+      <c r="E45">
+        <f>$C$5*E46</f>
+        <v>210408</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="8">
-        <v>1</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0.59602580000000005</v>
-      </c>
-      <c r="I25" s="2">
-        <v>0.63216640000000002</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0.43979970000000002</v>
-      </c>
-      <c r="K25" s="2">
-        <f>1-H25</f>
-        <v>0.40397419999999995</v>
-      </c>
-      <c r="O25" s="7"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <f>D27*$C$5</f>
+      <c r="G45" s="8"/>
+      <c r="H45" s="2">
+        <v>0.58991380000000004</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.62224080000000004</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.44188129999999998</v>
+      </c>
+      <c r="K45" s="2">
+        <f t="shared" si="4"/>
+        <v>0.41008619999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="D46" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="E46" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H46" s="17">
+        <f>(H45-$M$42)/$M$42</f>
+        <v>-7.4409341760624395E-3</v>
+      </c>
+      <c r="I46" s="17">
+        <f>(I45-$O$42)/$O$42</f>
+        <v>-1.9804803980509697E-2</v>
+      </c>
+      <c r="J46" s="17">
+        <f>(J45-$Q$42)/$Q$42</f>
+        <v>-1.6543095051382291E-2</v>
+      </c>
+      <c r="K46" s="17">
+        <f>(K45-$S$42)/$S$42</f>
+        <v>1.0901679785973652E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C47" s="22"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C48" s="22"/>
+      <c r="D48">
+        <f>$C$5*D49</f>
+        <v>157806</v>
+      </c>
+      <c r="E48">
+        <f>$C$5*E49</f>
+        <v>210408</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="8"/>
+      <c r="H48" s="2">
+        <v>0.59615412000000001</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.63038488000000004</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.43765530000000002</v>
+      </c>
+      <c r="K48" s="2">
+        <f>1-H48</f>
+        <v>0.40384587999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+      <c r="D49" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="E49" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="17">
+        <f>(H48-$M$42)/$M$42</f>
+        <v>3.0587120258782508E-3</v>
+      </c>
+      <c r="I49" s="17">
+        <f>(I48-$O$42)/$O$42</f>
+        <v>-6.9757061585757974E-3</v>
+      </c>
+      <c r="J49" s="17">
+        <f>(J48-$Q$42)/$Q$42</f>
+        <v>-2.5948536920754932E-2</v>
+      </c>
+      <c r="K49" s="17">
+        <f>(K48-$S$42)/$S$42</f>
+        <v>-4.4813054751786947E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G51" s="8"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G52" s="8"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G53" s="8"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <f>D55*$C$5</f>
         <v>105204</v>
       </c>
-      <c r="E26">
-        <f>E27*$C$5</f>
+      <c r="E54">
+        <f>E55*$C$5</f>
         <v>210408</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="8">
-        <v>2</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0.59533670000000005</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0.64642639999999996</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.45494319999999999</v>
-      </c>
-      <c r="K26" s="2">
-        <f>1-H26</f>
-        <v>0.40466329999999995</v>
-      </c>
-      <c r="O26" s="7"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D27" s="9">
+      <c r="G54" s="8"/>
+      <c r="H54" s="2">
+        <v>0.5263371</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.7060419</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.65166259999999998</v>
+      </c>
+      <c r="K54" s="2">
+        <f>1-H54</f>
+        <v>0.4736629</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="64.5" x14ac:dyDescent="0.25">
+      <c r="D55" s="9">
         <v>0.1</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E55" s="9">
         <v>0.2</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="8">
-        <v>3</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0.59373019999999999</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0.6351078</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.44740459999999999</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" ref="K27:K30" si="2">1-H27</f>
-        <v>0.40626980000000001</v>
-      </c>
-      <c r="O27" s="7"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F28" s="15"/>
-      <c r="G28" s="8">
-        <v>4</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.59357819999999994</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0.63184300000000004</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0.44427319999999998</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="2"/>
-        <v>0.40642180000000006</v>
-      </c>
-      <c r="M28" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="P28" s="14"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F29" s="15"/>
-      <c r="G29" s="8">
-        <v>5</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0.59387760000000001</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0.62498900000000002</v>
-      </c>
-      <c r="J29" s="2">
-        <v>0.457708</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="2"/>
-        <v>0.40612239999999999</v>
-      </c>
-      <c r="M29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N29" t="s">
-        <v>13</v>
-      </c>
-      <c r="O29" t="s">
-        <v>11</v>
-      </c>
-      <c r="P29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G30" s="8">
-        <v>6</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0.59346880000000002</v>
-      </c>
-      <c r="I30" s="2">
-        <v>0.63834630000000003</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0.45175739999999998</v>
-      </c>
-      <c r="K30" s="2">
-        <f t="shared" si="2"/>
-        <v>0.40653119999999998</v>
-      </c>
-      <c r="M30" s="7">
-        <f>AVERAGE(H25:H30)</f>
-        <v>0.59433621666666669</v>
-      </c>
-      <c r="N30">
-        <f>_xlfn.STDEV.P(H25:H30)</f>
-        <v>9.7981674547962193E-4</v>
-      </c>
-      <c r="O30" s="7">
-        <f>AVERAGE(J25:J30)</f>
-        <v>0.44931435000000003</v>
-      </c>
-      <c r="P30">
-        <f>_xlfn.STDEV.P(J25:J30)</f>
-        <v>6.1602855582486302E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G31" s="8"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G32" s="8"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G34" s="8"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="8"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G37" s="8"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G39" s="8"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G40" s="8"/>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G42" s="8"/>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G43" s="8"/>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G44" s="8"/>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G45" s="8"/>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G47" s="8"/>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G48" s="8"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G49" s="8"/>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G50" s="8"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G52" s="8"/>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G53" s="8"/>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G54" s="8"/>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G55" s="8"/>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G55" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="17">
+        <f>(H54-$M$42)/$M$42</f>
+        <v>-0.11441186782801085</v>
+      </c>
+      <c r="I55" s="17">
+        <f>(I54-$O$42)/$O$42</f>
+        <v>0.11220427617165786</v>
+      </c>
+      <c r="J55" s="17">
+        <f>(J54-$Q$42)/$Q$42</f>
+        <v>0.45034895947569881</v>
+      </c>
+      <c r="K55" s="17">
+        <f>(K54-$S$42)/$S$42</f>
+        <v>0.16762432206276559</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G56" s="8"/>
     </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G58" s="8"/>
     </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G59" s="8"/>
     </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G61" s="8"/>
     </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G62" s="8"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G63" s="8"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G64" s="8"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65" s="8"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G66" s="8"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G67" s="8"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G68" s="8"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G69" s="8"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G74" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="S40:T40"/>
+    <mergeCell ref="F11:F20"/>
+    <mergeCell ref="F37:F42"/>
     <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="F10:F15"/>
-    <mergeCell ref="F24:F29"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q40:R40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
